--- a/data/trans_bre/P32B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Habitat-trans_bre.xlsx
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.273273487019767</v>
+        <v>-2.418494008341055</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.570906296527123</v>
+        <v>-3.630373773338869</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.389809457186131</v>
+        <v>-2.373589307190608</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.8441008917831814</v>
+        <v>-0.7872932433817776</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.2068034356330636</v>
+        <v>-0.206657008003267</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.9775088592283423</v>
+        <v>-1.094916571074104</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5189932850588697</v>
+        <v>0.6295247706864278</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.992888892244153</v>
+        <v>2.032836269851409</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -721,7 +721,7 @@
         <v>-2.415682655600749</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.09557871866439499</v>
+        <v>0.09557871866439568</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.04837427473229829</v>
@@ -733,7 +733,7 @@
         <v>-0.7930681954575709</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.03878896277525642</v>
+        <v>0.03878896277525671</v>
       </c>
     </row>
     <row r="8">
@@ -744,18 +744,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.029660686458808</v>
+        <v>-1.105978150444483</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.092243993088248</v>
+        <v>-3.071645926898964</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.359000277454664</v>
+        <v>-4.376178244572735</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.1476243902428</v>
-      </c>
-      <c r="G8" s="6" t="inlineStr"/>
+        <v>-2.224416700966924</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
@@ -763,7 +765,7 @@
         <v>-1</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6932291225396001</v>
+        <v>-0.6921307319957066</v>
       </c>
     </row>
     <row r="9">
@@ -774,26 +776,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.921635344756667</v>
+        <v>1.86561275950695</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.008682975836228575</v>
+        <v>0.06288770849251381</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.7163221020291127</v>
+        <v>-0.7444963151817267</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.827042482963003</v>
-      </c>
-      <c r="G9" s="6" t="inlineStr"/>
+        <v>3.126584029846332</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>8.457482497765598</v>
+      </c>
       <c r="H9" s="6" t="n">
-        <v>0.4989921562762119</v>
+        <v>0.4862493687805439</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1531479963633664</v>
+        <v>-0.04909013357584534</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.934733221360131</v>
+        <v>2.524117594297498</v>
       </c>
     </row>
     <row r="10">
@@ -817,7 +821,7 @@
         <v>-0.9170803291942142</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5612134643411794</v>
+        <v>0.5612134643411797</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-1</v>
@@ -829,7 +833,7 @@
         <v>-1</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3049850098547681</v>
+        <v>0.3049850098547683</v>
       </c>
     </row>
     <row r="11">
@@ -840,16 +844,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.383531652681172</v>
+        <v>-2.283634369567724</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.159134418664618</v>
+        <v>-4.178235382489367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.601594221629274</v>
+        <v>-2.598635960112875</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.831132280215904</v>
+        <v>-2.078063743399725</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
@@ -857,7 +861,7 @@
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.7817085070693917</v>
+        <v>-0.8503581911255275</v>
       </c>
     </row>
     <row r="12">
@@ -868,24 +872,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.2365779993806391</v>
+        <v>-0.2345455441983862</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.3627223290197735</v>
+        <v>-0.4399614617620096</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.2467122164223982</v>
+        <v>-0.2476829128447093</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.666666873371086</v>
+        <v>4.395560141010039</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>0.4605516623684698</v>
+        <v>1.234113299761239</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>6.06254016117207</v>
+        <v>4.902479479636638</v>
       </c>
     </row>
     <row r="13">
@@ -932,28 +936,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.0001554685687643731</v>
+        <v>-0.01810915068029746</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.435532721187449</v>
+        <v>-5.406507629512401</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.410236724513418</v>
+        <v>-2.052821793463559</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.007660303627255</v>
+        <v>-3.813515072966936</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4712377023013991</v>
+        <v>-0.4422859216781303</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.9360284397085287</v>
+        <v>-0.9329006592954971</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.689968675892106</v>
+        <v>-0.6411429135130893</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8503162109985298</v>
+        <v>-0.8524614699381391</v>
       </c>
     </row>
     <row r="15">
@@ -964,28 +968,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.65583119387765</v>
+        <v>3.671011022348797</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.393658295922744</v>
+        <v>-1.342700214355427</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.517400166206838</v>
+        <v>1.774021775894249</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.891246118784313</v>
+        <v>0.9630582640055572</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12.54998384747576</v>
+        <v>12.7820893374825</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3134301599841707</v>
+        <v>-0.2660627275624837</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.871865106126023</v>
+        <v>1.177826786089894</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8594380822919466</v>
+        <v>0.7161999107207661</v>
       </c>
     </row>
     <row r="16">
@@ -1032,28 +1036,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4408889955133993</v>
+        <v>-0.4251159106598031</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.052245436904808</v>
+        <v>-3.02257456110538</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.966588723295907</v>
+        <v>-1.986844063752831</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.405871426011365</v>
+        <v>-1.436556675621202</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4764050537741991</v>
+        <v>-0.4238749063691587</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.9057334476729187</v>
+        <v>-0.9014144710386189</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7707912526340934</v>
+        <v>-0.7629577298509007</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5526288004745511</v>
+        <v>-0.5544285743635862</v>
       </c>
     </row>
     <row r="18">
@@ -1064,28 +1068,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.190403419136332</v>
+        <v>1.193845595542055</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.336625842415002</v>
+        <v>-1.163540725570601</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.1792513424041016</v>
+        <v>-0.1057204369647571</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.090359729222816</v>
+        <v>1.058700648481758</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.156955667622913</v>
+        <v>2.22435459876891</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.5085287462481503</v>
+        <v>-0.4635714806896734</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.06839250539444715</v>
+        <v>-0.03340353801609922</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6190238021089078</v>
+        <v>0.697382556618367</v>
       </c>
     </row>
     <row r="19">
